--- a/excel/team.xlsx
+++ b/excel/team.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F1BDA-8B19-4C90-9C87-8B61A370F21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -56,18 +57,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001,80002</t>
+    <t>tower_layer</t>
+  </si>
+  <si>
+    <t>10012,10012</t>
+  </si>
+  <si>
+    <t>10012,10013</t>
+  </si>
+  <si>
+    <t>10012,10014</t>
+  </si>
+  <si>
+    <t>10012,10015</t>
+  </si>
+  <si>
+    <t>10012,10016</t>
+  </si>
+  <si>
+    <t>10012,10017</t>
+  </si>
+  <si>
+    <t>10012,10018</t>
+  </si>
+  <si>
+    <t>10012,10011</t>
+  </si>
+  <si>
+    <t>江湖二流高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001|80002</t>
+  </si>
+  <si>
+    <t>80001|80002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,21 +433,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -420,13 +455,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,55 +472,253 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>70001</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>70002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>70003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>70004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>70005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>70006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>70007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>70008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>70009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>70010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>70011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>70012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/team.xlsx
+++ b/excel/team.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F1BDA-8B19-4C90-9C87-8B61A370F21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB875DFA-B7FF-4124-8864-C485944729E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10012,10011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cards</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,30 +56,6 @@
     <t>tower_layer</t>
   </si>
   <si>
-    <t>10012,10012</t>
-  </si>
-  <si>
-    <t>10012,10013</t>
-  </si>
-  <si>
-    <t>10012,10014</t>
-  </si>
-  <si>
-    <t>10012,10015</t>
-  </si>
-  <si>
-    <t>10012,10016</t>
-  </si>
-  <si>
-    <t>10012,10017</t>
-  </si>
-  <si>
-    <t>10012,10018</t>
-  </si>
-  <si>
-    <t>10012,10011</t>
-  </si>
-  <si>
     <t>江湖二流高手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +64,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80001|80002</t>
-  </si>
-  <si>
-    <t>80001|80002</t>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>10014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002</t>
+  </si>
+  <si>
+    <t>80002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +432,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -472,13 +467,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -509,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,10 +538,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -571,16 +566,16 @@
         <v>70006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,7 +583,7 @@
         <v>70007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -597,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,16 +600,16 @@
         <v>70008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,16 +617,16 @@
         <v>70009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,16 +634,16 @@
         <v>70010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,16 +651,16 @@
         <v>70011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,16 +668,16 @@
         <v>70012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/excel/team.xlsx
+++ b/excel/team.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB875DFA-B7FF-4124-8864-C485944729E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33262E14-F076-4769-AD66-58212DBF8EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -74,23 +74,18 @@
     <t>80002</t>
   </si>
   <si>
-    <t>80002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004</t>
+  </si>
+  <si>
+    <t>80004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +427,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,7 +485,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -504,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/excel/team.xlsx
+++ b/excel/team.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33262E14-F076-4769-AD66-58212DBF8EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AEB91-7C37-4471-ADB0-0BF37FBFF874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,39 @@
   </si>
   <si>
     <t>80004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,14</t>
+  </si>
+  <si>
+    <t>8,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,30</t>
+  </si>
+  <si>
+    <t>22,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60004|60002,2</t>
+  </si>
+  <si>
+    <t>60004|60002,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -435,9 +468,11 @@
     <col min="2" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -453,8 +488,14 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +511,14 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>70001</v>
       </c>
@@ -487,8 +534,14 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>70002</v>
       </c>
@@ -504,8 +557,14 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>70003</v>
       </c>
@@ -521,8 +580,14 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>70004</v>
       </c>
@@ -538,8 +603,14 @@
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>70005</v>
       </c>
@@ -555,8 +626,14 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>70006</v>
       </c>
@@ -572,8 +649,14 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70007</v>
       </c>
@@ -589,8 +672,14 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>70008</v>
       </c>
@@ -606,8 +695,14 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>70009</v>
       </c>
@@ -623,8 +718,14 @@
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>70010</v>
       </c>
@@ -640,8 +741,14 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>70011</v>
       </c>
@@ -657,8 +764,14 @@
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>70012</v>
       </c>
@@ -674,15 +787,22 @@
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/excel/team.xlsx
+++ b/excel/team.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AEB91-7C37-4471-ADB0-0BF37FBFF874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -60,50 +59,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>80002</t>
+  </si>
+  <si>
+    <t>10015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004</t>
+  </si>
+  <si>
+    <t>reward_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,14</t>
+  </si>
+  <si>
+    <t>8,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,30</t>
+  </si>
+  <si>
+    <t>22,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>number[][]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10014</t>
-  </si>
-  <si>
-    <t>10014</t>
+    <t>reward_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60004|60002,2</t>
+  </si>
+  <si>
+    <t>60004|60002,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10014,10015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>80002</t>
-  </si>
-  <si>
-    <t>10015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>80004</t>
-  </si>
-  <si>
-    <t>80004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,14</t>
-  </si>
-  <si>
-    <t>8,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,30</t>
-  </si>
-  <si>
-    <t>22,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,21 +129,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reward_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60004|60002,2</t>
-  </si>
-  <si>
-    <t>60004|60002,2</t>
+    <t>80004|80002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,23 +467,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -486,16 +497,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,13 +523,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>70001</v>
       </c>
@@ -529,19 +540,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>70002</v>
       </c>
@@ -552,19 +563,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>70003</v>
       </c>
@@ -575,19 +586,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>70004</v>
       </c>
@@ -598,19 +609,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>70005</v>
       </c>
@@ -621,19 +632,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>70006</v>
       </c>
@@ -644,19 +655,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70007</v>
       </c>
@@ -667,19 +678,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>70008</v>
       </c>
@@ -690,19 +701,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>70009</v>
       </c>
@@ -713,19 +724,19 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>70010</v>
       </c>
@@ -736,19 +747,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>70011</v>
       </c>
@@ -759,19 +770,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>70012</v>
       </c>
@@ -782,19 +793,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -802,28 +813,28 @@
       <c r="E15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/excel/team.xlsx
+++ b/excel/team.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,34 @@
   </si>
   <si>
     <t>80004|80002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60008|60002,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60009|60002,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60008|60002,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60009|60002,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60004|60002,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60008|60002,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60008|60002,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +499,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +600,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -595,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -641,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -664,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -687,7 +715,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -710,7 +738,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -733,7 +761,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -779,7 +807,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -802,7 +830,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">

--- a/excel/team.xlsx
+++ b/excel/team.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE1A171-F10F-47EB-8F58-155AD3EE7B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -59,23 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10014</t>
-  </si>
-  <si>
-    <t>80002</t>
-  </si>
-  <si>
-    <t>10015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80004</t>
-  </si>
-  <si>
     <t>reward_money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,14 +94,6 @@
   </si>
   <si>
     <t>10014,10015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,23 +471,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -525,16 +501,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>70001</v>
       </c>
@@ -568,19 +544,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>70002</v>
       </c>
@@ -591,19 +567,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>70003</v>
       </c>
@@ -614,19 +590,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>70004</v>
       </c>
@@ -637,19 +613,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>70005</v>
       </c>
@@ -660,19 +636,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>70006</v>
       </c>
@@ -683,19 +659,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70007</v>
       </c>
@@ -706,19 +682,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>70008</v>
       </c>
@@ -729,19 +705,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>70009</v>
       </c>
@@ -752,19 +728,19 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>70010</v>
       </c>
@@ -775,19 +751,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>70011</v>
       </c>
@@ -798,19 +774,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>70012</v>
       </c>
@@ -821,19 +797,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -841,28 +817,28 @@
       <c r="E15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/excel/team.xlsx
+++ b/excel/team.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE1A171-F10F-47EB-8F58-155AD3EE7B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68677CF-8CBA-47B8-B411-E5F9A9D03D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>江湖三流杂鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,28 +52,10 @@
     <t>tower_layer</t>
   </si>
   <si>
-    <t>江湖二流高手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reward_money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,14</t>
-  </si>
-  <si>
-    <t>8,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,30</t>
-  </si>
-  <si>
-    <t>22,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number[][]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,13 +65,6 @@
   </si>
   <si>
     <t>60004|60002,2</t>
-  </si>
-  <si>
-    <t>60004|60002,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10014,10015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,35 +76,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80004|80002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60008|60002,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60009|60002,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60008|60002,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60009|60002,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60004|60002,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60008|60002,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60008|60002,2</t>
+    <t>土匪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子</t>
+  </si>
+  <si>
+    <t>野和尚</t>
+  </si>
+  <si>
+    <t>黑衣人</t>
+  </si>
+  <si>
+    <t>武当弟子</t>
+  </si>
+  <si>
+    <t>闯荡江湖的青年</t>
+  </si>
+  <si>
+    <t>昆仑后进术士</t>
+  </si>
+  <si>
+    <t>圣火弟子</t>
+  </si>
+  <si>
+    <t>盐帮流寇</t>
+  </si>
+  <si>
+    <t>10004,10005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008,10009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10015,10016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10017,10018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004|80005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山岳松涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山宁千山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80008|80009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60004|60002,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80015|80016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80017|80018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +546,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -501,13 +572,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -518,19 +589,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,22 +609,22 @@
         <v>70001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>60004</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,22 +632,22 @@
         <v>70002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60004</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -584,22 +655,22 @@
         <v>70003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,22 +678,22 @@
         <v>70004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
+      <c r="D6" s="1">
+        <v>10010</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -630,22 +701,22 @@
         <v>70005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
+      <c r="D7" s="1">
+        <v>10011</v>
+      </c>
+      <c r="E7" s="1">
+        <v>80011</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="G7" s="1">
+        <v>60004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,22 +724,22 @@
         <v>70006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10012</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="G8" s="1">
+        <v>60004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,22 +747,22 @@
         <v>70007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10013</v>
+      </c>
+      <c r="E9" s="1">
+        <v>80013</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <v>60004</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,22 +770,22 @@
         <v>70008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10014</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,22 +793,22 @@
         <v>70009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>60004</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -745,22 +816,22 @@
         <v>70010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,46 +839,32 @@
         <v>70011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G13" s="1">
+        <v>60004</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>70012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -815,6 +872,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
